--- a/zss.test/src/main/webapp/issue3/book/1210-statfuns.xlsx
+++ b/zss.test/src/main/webapp/issue3/book/1210-statfuns.xlsx
@@ -536,7 +536,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
